--- a/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="K114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="L114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="M114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="N114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="O114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="P114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="Q114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="R114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="S114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="T114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="U114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="V114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="W114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="X114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="Y114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="Z114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AA114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AB114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AC114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AD114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AE114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AF114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AG114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AH114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AI114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AJ114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AK114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AL114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AM114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AN114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AO114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AP114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AQ114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AR114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
       <c r="AS114" t="n">
-        <v>5112787201</v>
+        <v>135234.274</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="K100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="L100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="M100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="N100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="O100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="P100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="Q100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="R100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="S100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="T100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="U100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="V100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="W100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="X100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="Y100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="Z100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AA100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AB100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AC100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AD100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AE100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AF100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AG100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AH100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AI100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AJ100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AK100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AL100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AM100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AN100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AO100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AP100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AQ100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AR100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
       <c r="AS100" t="n">
-        <v>62707429.49</v>
+        <v>8175149.667</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="K101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="L101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="M101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="N101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="O101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="P101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="Q101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="R101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="S101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="T101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="U101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="V101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="W101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="X101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="Y101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="Z101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AA101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AB101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AC101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AD101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AE101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AF101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AG101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AH101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AI101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AJ101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AK101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AL101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AM101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AN101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AO101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AP101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AQ101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AR101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
       <c r="AS101" t="n">
-        <v>108097681.2</v>
+        <v>10809768.12</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="K103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="L103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="M103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="N103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="O103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="P103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="Q103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="R103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="S103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="T103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="U103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="V103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="W103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="X103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="Y103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="Z103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AA103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AB103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AC103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AD103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AE103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AF103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AG103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AH103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AI103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AJ103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AK103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AL103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AM103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AN103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AO103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AP103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AQ103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AR103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
       <c r="AS103" t="n">
-        <v>4269589.414</v>
+        <v>4327799.942</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="K105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="L105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="M105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="N105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="O105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="P105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="Q105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="R105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="S105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="T105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="U105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="V105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="W105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="X105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="Y105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="Z105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AA105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AB105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AC105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AD105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AE105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AF105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AG105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AH105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AI105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AJ105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AK105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AL105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AM105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AN105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AO105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AP105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AQ105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AR105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
       <c r="AS105" t="n">
-        <v>26938756.38</v>
+        <v>7004076.659</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="K106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="L106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="M106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="N106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="O106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="P106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="Q106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="R106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="S106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="T106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="U106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="V106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="W106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="X106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="Y106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="Z106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AA106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AB106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AC106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AD106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AE106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AF106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AG106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AH106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AI106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AJ106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AK106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AL106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AM106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AN106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AO106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AP106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AQ106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AR106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
       <c r="AS106" t="n">
-        <v>49760924.84</v>
+        <v>1543460.269</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="K107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="L107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="M107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="N107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="O107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="P107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="Q107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="R107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="S107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="T107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="U107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="V107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="W107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="X107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="Y107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="Z107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AA107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AB107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AC107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AD107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AE107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AF107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AG107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AH107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AI107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AJ107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AK107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AL107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AM107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AN107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AO107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AP107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AQ107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AR107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
       <c r="AS107" t="n">
-        <v>9376508.173</v>
+        <v>18753016.35</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="K115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="L115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="M115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="N115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="O115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="P115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="Q115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="R115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="S115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="T115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="U115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="V115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="W115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="X115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="Y115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="Z115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AA115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AB115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AC115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AD115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AE115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AF115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AG115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AH115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AI115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AJ115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AK115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AL115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AM115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AN115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AO115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AP115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AQ115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AR115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
       <c r="AS115" t="n">
-        <v>3665136.313</v>
+        <v>36651363.13</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="K96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="L96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="M96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="N96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="O96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="P96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="Q96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="R96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="S96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="T96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="U96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="V96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="W96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="X96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="Y96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="Z96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AA96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AB96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AC96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AD96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AE96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AF96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AG96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AH96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AI96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AJ96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AK96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AL96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AM96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AN96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AO96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AP96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AQ96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AR96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
       <c r="AS96">
-        <v>8175149.667</v>
+        <v>23403862.31</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="K97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="L97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="M97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="N97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="O97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="P97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="Q97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="R97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="S97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="T97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="U97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="V97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="W97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="X97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="Y97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="Z97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AA97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AB97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AC97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AD97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AE97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AF97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AG97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AH97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AI97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AJ97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AK97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AL97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AM97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AN97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AO97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AP97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AQ97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AR97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
       <c r="AS97">
-        <v>10809768.12</v>
+        <v>17500919.01</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="K98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="L98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="M98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="N98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="O98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="P98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="Q98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="R98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="S98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="T98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="U98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="V98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="W98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="X98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="Y98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="Z98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AA98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AB98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AC98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AD98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AE98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AF98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AG98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AH98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AI98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AJ98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AK98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AL98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AM98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AN98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AO98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AP98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AQ98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AR98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
       <c r="AS98">
-        <v>14031456.99</v>
+        <v>4452377.762</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="K99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="L99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="M99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="N99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="O99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="P99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="Q99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="R99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="S99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="T99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="U99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="V99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="W99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="X99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="Y99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="Z99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AA99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AB99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AC99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AD99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AE99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AF99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AG99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AH99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AI99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AJ99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AK99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AL99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AM99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AN99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AO99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AP99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AQ99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AR99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
       <c r="AS99">
-        <v>4327799.942</v>
+        <v>296129.2898</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="K100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="L100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="M100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="N100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="O100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="P100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="Q100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="R100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="S100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="T100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="U100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="V100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="W100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="X100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="Y100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="Z100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AA100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AB100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AC100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AD100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AE100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AF100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AG100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AH100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AI100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AJ100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AK100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AL100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AM100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AN100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AO100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AP100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AQ100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AR100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
       <c r="AS100">
-        <v>6288576.667</v>
+        <v>3150919.414</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="K101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="L101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="M101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="N101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="O101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="P101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="Q101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="R101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="S101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="T101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="U101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="V101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="W101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="X101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="Y101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="Z101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AA101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AB101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AC101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AD101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AE101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AF101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AG101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AH101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AI101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AJ101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AK101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AL101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AM101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AN101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AO101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AP101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AQ101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AR101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
       <c r="AS101">
-        <v>7004076.659</v>
+        <v>28032991.61</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="K103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="L103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="M103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="N103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="O103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="P103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="Q103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="R103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="S103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="T103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="U103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="V103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="W103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="X103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="Y103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="Z103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AA103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AB103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AC103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AD103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AE103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AF103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AG103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AH103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AI103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AJ103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AK103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AL103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AM103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AN103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AO103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AP103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AQ103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AR103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
       <c r="AS103">
-        <v>1543460.269</v>
+        <v>4939215.276</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="K104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="L104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="M104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="N104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="O104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="P104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="Q104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="R104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="S104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="T104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="U104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="V104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="W104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="X104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="Y104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="Z104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AA104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AB104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AC104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AD104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AE104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AF104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AG104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AH104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AI104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AJ104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AK104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AL104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AM104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AN104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AO104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AP104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AQ104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AR104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
       <c r="AS104">
-        <v>18753016.35</v>
+        <v>4635387.512</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="K111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="L111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="M111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="N111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="O111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="P111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="Q111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="R111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="S111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="T111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="U111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="V111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="W111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="X111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="Y111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="Z111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AA111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AB111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AC111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AD111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AE111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AF111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AG111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AH111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AI111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AJ111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AK111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AL111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AM111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AN111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AO111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AP111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AQ111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AR111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
       <c r="AS111">
-        <v>135234.274</v>
+        <v>281075.8373</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="K112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="L112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="M112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="N112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="O112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="P112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="Q112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="R112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="S112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="T112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="U112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="V112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="W112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="X112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="Y112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="Z112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AA112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AB112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AC112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AD112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AE112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AF112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AG112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AH112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AI112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AJ112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AK112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AL112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AM112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AN112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AO112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AP112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AQ112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AR112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
       <c r="AS112">
-        <v>36651363.13</v>
+        <v>777959.6513</v>
       </c>
     </row>
     <row r="113" spans="1:45">

--- a/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/brazil/model_input_variables_brazil_ip_calibrated.xlsx
@@ -16069,112 +16069,112 @@
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>64090000</v>
+        <v>65280000</v>
       </c>
       <c r="K120" t="n">
-        <v>64090000</v>
+        <v>57560000</v>
       </c>
       <c r="L120" t="n">
-        <v>64090000</v>
+        <v>54000000</v>
       </c>
       <c r="M120" t="n">
-        <v>64090000</v>
+        <v>53550000</v>
       </c>
       <c r="N120" t="n">
-        <v>64090000</v>
+        <v>54680000</v>
       </c>
       <c r="O120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="P120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="Q120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="R120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="S120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="T120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="U120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="V120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="W120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="X120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="Y120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="Z120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AA120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AB120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AC120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AD120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AE120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AF120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AG120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AH120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AI120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AJ120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AK120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AL120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AM120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AN120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AO120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AP120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AQ120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AR120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
       <c r="AS120" t="n">
-        <v>64090000</v>
+        <v>60790000</v>
       </c>
     </row>
     <row r="121">
@@ -16200,112 +16200,112 @@
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>19005282.9583538</v>
+        <v>20054290.3089959</v>
       </c>
       <c r="K121" t="n">
-        <v>19005282.9583538</v>
+        <v>21678310.4743433</v>
       </c>
       <c r="L121" t="n">
-        <v>19005282.9583538</v>
+        <v>24240547.935411</v>
       </c>
       <c r="M121" t="n">
-        <v>19005282.9583538</v>
+        <v>21299704.2729466</v>
       </c>
       <c r="N121" t="n">
-        <v>19005282.9583538</v>
+        <v>21407625.8748449</v>
       </c>
       <c r="O121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="P121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="Q121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="R121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="S121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="T121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="U121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="V121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="W121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="X121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="Y121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="Z121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AA121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AB121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AC121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AD121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AE121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AF121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AG121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AH121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AI121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AJ121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AK121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AL121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AM121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AN121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AO121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AP121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AQ121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AR121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
       <c r="AS121" t="n">
-        <v>19005282.9583538</v>
+        <v>17500919.0055442</v>
       </c>
     </row>
     <row r="122">
@@ -16331,112 +16331,112 @@
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>6692614.57130269</v>
+        <v>4892373.59589412</v>
       </c>
       <c r="K122" t="n">
-        <v>6692614.57130269</v>
+        <v>5104573.01584478</v>
       </c>
       <c r="L122" t="n">
-        <v>6692614.57130269</v>
+        <v>6304736.37795732</v>
       </c>
       <c r="M122" t="n">
-        <v>6692614.57130269</v>
+        <v>5282174.77579038</v>
       </c>
       <c r="N122" t="n">
-        <v>6692614.57130269</v>
+        <v>5259228.76034461</v>
       </c>
       <c r="O122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="P122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="Q122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="R122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="S122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="T122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="U122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="V122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="W122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="X122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="Y122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="Z122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AA122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AB122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AC122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AD122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AE122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AF122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AG122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AH122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AI122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AJ122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AK122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AL122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AM122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AN122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AO122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AP122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AQ122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AR122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
       <c r="AS122" t="n">
-        <v>6692614.57130269</v>
+        <v>4452377.76167403</v>
       </c>
     </row>
     <row r="123">
@@ -16462,112 +16462,112 @@
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>621673.478153678</v>
+        <v>404674.303197152</v>
       </c>
       <c r="K123" t="n">
-        <v>621673.478153678</v>
+        <v>372406.676192083</v>
       </c>
       <c r="L123" t="n">
-        <v>621673.478153678</v>
+        <v>450613.755924574</v>
       </c>
       <c r="M123" t="n">
-        <v>621673.478153678</v>
+        <v>393198.141130818</v>
       </c>
       <c r="N123" t="n">
-        <v>621673.478153678</v>
+        <v>375188.518343482</v>
       </c>
       <c r="O123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="P123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="Q123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="R123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="S123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="T123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="U123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="V123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="W123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="X123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="Y123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="Z123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AA123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AB123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AC123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AD123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AE123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AF123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AG123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AH123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AI123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AJ123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AK123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AL123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AM123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AN123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AO123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AP123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AQ123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AR123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
       <c r="AS123" t="n">
-        <v>621673.478153678</v>
+        <v>296129.289827321</v>
       </c>
     </row>
     <row r="124">
@@ -16593,112 +16593,112 @@
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2071873.33781328</v>
+        <v>4683918.63494378</v>
       </c>
       <c r="K124" t="n">
-        <v>2071873.33781328</v>
+        <v>3860026.53293914</v>
       </c>
       <c r="L124" t="n">
-        <v>2071873.33781328</v>
+        <v>3666666.2586759</v>
       </c>
       <c r="M124" t="n">
-        <v>2071873.33781328</v>
+        <v>3212502.43697274</v>
       </c>
       <c r="N124" t="n">
-        <v>2071873.33781328</v>
+        <v>3151563.7770658</v>
       </c>
       <c r="O124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="P124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="Q124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="R124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="S124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="T124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="U124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="V124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="W124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="X124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="Y124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="Z124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AA124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AB124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AC124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AD124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AE124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AF124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AG124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AH124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AI124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AJ124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AK124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AL124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AM124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AN124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AO124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AP124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AR124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
       <c r="AS124" t="n">
-        <v>2071873.33781328</v>
+        <v>3150919.41356564</v>
       </c>
     </row>
     <row r="125">
@@ -16724,112 +16724,112 @@
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>46974966.6509794</v>
+        <v>38374315.7358501</v>
       </c>
       <c r="K125" t="n">
-        <v>46974966.6509794</v>
+        <v>35651268.1435591</v>
       </c>
       <c r="L125" t="n">
-        <v>46974966.6509794</v>
+        <v>42992221.9574969</v>
       </c>
       <c r="M125" t="n">
-        <v>46974966.6509794</v>
+        <v>38345645.4696455</v>
       </c>
       <c r="N125" t="n">
-        <v>46974966.6509794</v>
+        <v>38177834.630546</v>
       </c>
       <c r="O125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="P125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="Q125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="R125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="S125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="T125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="U125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="V125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="W125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="X125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="Y125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="Z125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AA125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AB125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AC125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AD125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AE125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AF125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AG125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AH125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AI125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AJ125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AK125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AL125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AM125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AN125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AO125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AP125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AQ125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AR125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
       <c r="AS125" t="n">
-        <v>46974966.6509794</v>
+        <v>28032991.6050389</v>
       </c>
     </row>
     <row r="126">
@@ -16855,112 +16855,112 @@
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2739941826.74712</v>
+        <v>1825996363.67412</v>
       </c>
       <c r="K126" t="n">
-        <v>2739941826.74712</v>
+        <v>1706015637.3542</v>
       </c>
       <c r="L126" t="n">
-        <v>2739941826.74712</v>
+        <v>1998345242.54784</v>
       </c>
       <c r="M126" t="n">
-        <v>2739941826.74712</v>
+        <v>1799413631.46762</v>
       </c>
       <c r="N126" t="n">
-        <v>2739941826.74712</v>
+        <v>1819486908.31485</v>
       </c>
       <c r="O126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="P126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="Q126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="R126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="S126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="T126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="U126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="V126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="W126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="X126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="Y126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="Z126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AA126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AB126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AC126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AD126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AE126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AF126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AG126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AH126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AI126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AJ126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AK126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AL126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AM126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AN126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AO126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AP126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AR126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
       <c r="AS126" t="n">
-        <v>2739941826.74712</v>
+        <v>1363159072.94259</v>
       </c>
     </row>
     <row r="127">
@@ -16986,112 +16986,112 @@
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>11547400.4472975</v>
+        <v>8467650.645014539</v>
       </c>
       <c r="K127" t="n">
-        <v>11547400.4472975</v>
+        <v>8191698.57153797</v>
       </c>
       <c r="L127" t="n">
-        <v>11547400.4472975</v>
+        <v>8847476.639421631</v>
       </c>
       <c r="M127" t="n">
-        <v>11547400.4472975</v>
+        <v>6930693.95795132</v>
       </c>
       <c r="N127" t="n">
-        <v>11547400.4472975</v>
+        <v>6840111.30346286</v>
       </c>
       <c r="O127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="P127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="Q127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="R127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="S127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="T127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="U127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="V127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="W127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="X127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="Y127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="Z127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AA127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AB127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AC127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AD127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AE127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AF127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AG127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AH127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AI127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AJ127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AK127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AL127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AM127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AN127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AO127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AP127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AQ127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AR127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
       <c r="AS127" t="n">
-        <v>11547400.4472975</v>
+        <v>4939215.27641675</v>
       </c>
     </row>
     <row r="128">
@@ -17117,112 +17117,112 @@
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>7001403.98270078</v>
+        <v>6323137.72887435</v>
       </c>
       <c r="K128" t="n">
-        <v>7001403.98270078</v>
+        <v>6491465.69732823</v>
       </c>
       <c r="L128" t="n">
-        <v>7001403.98270078</v>
+        <v>7569580.31702119</v>
       </c>
       <c r="M128" t="n">
-        <v>7001403.98270078</v>
+        <v>6295153.10651528</v>
       </c>
       <c r="N128" t="n">
-        <v>7001403.98270078</v>
+        <v>6023144.32620431</v>
       </c>
       <c r="O128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="P128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="Q128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="R128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="S128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="T128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="U128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="V128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="W128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="X128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="Y128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="Z128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AA128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AB128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AC128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AD128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AE128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AF128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AG128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AH128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AI128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AJ128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AK128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AL128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AM128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AN128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AO128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AP128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AQ128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AR128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
       <c r="AS128" t="n">
-        <v>7001403.98270078</v>
+        <v>4635387.51223029</v>
       </c>
     </row>
     <row r="129">
@@ -18034,112 +18034,112 @@
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>610927.32821155</v>
+        <v>463536.175187636</v>
       </c>
       <c r="K135" t="n">
-        <v>610927.32821155</v>
+        <v>449458.082622613</v>
       </c>
       <c r="L135" t="n">
-        <v>610927.32821155</v>
+        <v>500107.08924226</v>
       </c>
       <c r="M135" t="n">
-        <v>610927.32821155</v>
+        <v>389806.620681106</v>
       </c>
       <c r="N135" t="n">
-        <v>610927.32821155</v>
+        <v>379553.744359395</v>
       </c>
       <c r="O135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="P135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="Q135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="R135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="S135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="T135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="U135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="V135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="W135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="X135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="Y135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="Z135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AA135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AB135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AC135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AD135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AE135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AF135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AG135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AH135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AI135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AJ135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AK135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AL135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AM135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AN135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AO135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AP135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AQ135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AR135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
       <c r="AS135" t="n">
-        <v>610927.32821155</v>
+        <v>281075.837329854</v>
       </c>
     </row>
     <row r="136">
@@ -18165,112 +18165,112 @@
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1206543.17935585</v>
+        <v>1035676.53239068</v>
       </c>
       <c r="K136" t="n">
-        <v>1206543.17935585</v>
+        <v>975561.701308283</v>
       </c>
       <c r="L136" t="n">
-        <v>1206543.17935585</v>
+        <v>1178557.41331003</v>
       </c>
       <c r="M136" t="n">
-        <v>1206543.17935585</v>
+        <v>1008859.51322799</v>
       </c>
       <c r="N136" t="n">
-        <v>1206543.17935585</v>
+        <v>1001752.22219844</v>
       </c>
       <c r="O136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="P136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="Q136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="R136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="S136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="T136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="U136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="V136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="W136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="X136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="Y136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="Z136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AA136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AB136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AC136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AD136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AE136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AF136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AG136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AH136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AI136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AJ136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AK136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AL136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AM136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AN136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AO136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AP136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AR136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
       <c r="AS136" t="n">
-        <v>1206543.17935585</v>
+        <v>777959.651291728</v>
       </c>
     </row>
     <row r="137">
